--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.9114260005108</v>
+        <v>128.3027167364179</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.1761973024139</v>
+        <v>175.5494373550674</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.6071005774561</v>
+        <v>158.7952454391315</v>
       </c>
       <c r="AD2" t="n">
-        <v>103911.4260005108</v>
+        <v>128302.7167364179</v>
       </c>
       <c r="AE2" t="n">
-        <v>142176.1973024139</v>
+        <v>175549.4373550674</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037057024069888e-06</v>
+        <v>5.619350639880775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128607.1005774561</v>
+        <v>158795.2454391315</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.73945749693587</v>
+        <v>108.0454073782713</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.5760200713939</v>
+        <v>147.8324930018497</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.6410455242638</v>
+        <v>133.7235673540004</v>
       </c>
       <c r="AD3" t="n">
-        <v>83739.45749693587</v>
+        <v>108045.4073782713</v>
       </c>
       <c r="AE3" t="n">
-        <v>114576.0200713939</v>
+        <v>147832.4930018497</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.632755659968313e-06</v>
+        <v>6.721549078791247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103641.0455242638</v>
+        <v>133723.5673540004</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.04006614201666</v>
+        <v>106.3460160233521</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.2508378477392</v>
+        <v>145.5073107781951</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.5377754286202</v>
+        <v>131.6202972583569</v>
       </c>
       <c r="AD4" t="n">
-        <v>82040.06614201666</v>
+        <v>106346.0160233521</v>
       </c>
       <c r="AE4" t="n">
-        <v>112250.8378477392</v>
+        <v>145507.3107781951</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.797243269669194e-06</v>
+        <v>7.025894221967537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>101537.7754286202</v>
+        <v>131620.2972583569</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.4524267432606</v>
+        <v>92.84362797061661</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.6596301780269</v>
+        <v>127.032747761132</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.72088652597549</v>
+        <v>114.9089206064244</v>
       </c>
       <c r="AD5" t="n">
-        <v>68452.4267432606</v>
+        <v>92843.62797061661</v>
       </c>
       <c r="AE5" t="n">
-        <v>93659.6301780269</v>
+        <v>127032.747761132</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.920556458550955e-06</v>
+        <v>7.254055906570964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.873697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>84720.88652597548</v>
+        <v>114908.9206064244</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.63759576079502</v>
+        <v>92.02879698815103</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.54474248001218</v>
+        <v>125.9178600631173</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.71240214510424</v>
+        <v>113.9004362255531</v>
       </c>
       <c r="AD6" t="n">
-        <v>67637.59576079503</v>
+        <v>92028.79698815104</v>
       </c>
       <c r="AE6" t="n">
-        <v>92544.74248001218</v>
+        <v>125917.8600631173</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.000641173874315e-06</v>
+        <v>7.402233597253219e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>83712.40214510424</v>
+        <v>113900.4362255531</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.06085930390745</v>
+        <v>91.45206053126347</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.75562621588224</v>
+        <v>125.1287437989874</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.99859802969097</v>
+        <v>113.1866321101399</v>
       </c>
       <c r="AD7" t="n">
-        <v>67060.85930390745</v>
+        <v>91452.06053126347</v>
       </c>
       <c r="AE7" t="n">
-        <v>91755.62621588225</v>
+        <v>125128.7437989874</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.041815594693437e-06</v>
+        <v>7.478417055826082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.763020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>82998.59802969097</v>
+        <v>113186.6321101399</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.47761598781328</v>
+        <v>90.86881721516929</v>
       </c>
       <c r="AB8" t="n">
-        <v>90.95760697992348</v>
+        <v>124.3307245630286</v>
       </c>
       <c r="AC8" t="n">
-        <v>82.27674062958484</v>
+        <v>112.4647747100337</v>
       </c>
       <c r="AD8" t="n">
-        <v>66477.61598781327</v>
+        <v>90868.81721516929</v>
       </c>
       <c r="AE8" t="n">
-        <v>90957.60697992348</v>
+        <v>124330.7245630286</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.084250456966206e-06</v>
+        <v>7.556932661089953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>82276.74062958483</v>
+        <v>112464.7747100337</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>66.0940520336036</v>
+        <v>90.48525326095961</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.43279785612668</v>
+        <v>123.8059154392318</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.80201855198879</v>
+        <v>111.9900526324377</v>
       </c>
       <c r="AD9" t="n">
-        <v>66094.0520336036</v>
+        <v>90485.25326095961</v>
       </c>
       <c r="AE9" t="n">
-        <v>90432.79785612668</v>
+        <v>123805.9154392318</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.088615319037167e-06</v>
+        <v>7.565008798705104e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.717447916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>81802.01855198879</v>
+        <v>111990.0526324377</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>65.72501175340699</v>
+        <v>90.116212980763</v>
       </c>
       <c r="AB10" t="n">
-        <v>89.92786066385382</v>
+        <v>123.3009782469589</v>
       </c>
       <c r="AC10" t="n">
-        <v>81.34527185666249</v>
+        <v>111.5333059371114</v>
       </c>
       <c r="AD10" t="n">
-        <v>65725.01175340699</v>
+        <v>90116.212980763</v>
       </c>
       <c r="AE10" t="n">
-        <v>89927.86066385382</v>
+        <v>123300.9782469589</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.125564926835734e-06</v>
+        <v>7.63337524707293e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.684895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>81345.2718566625</v>
+        <v>111533.3059371114</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>65.22878308767632</v>
+        <v>89.61998431503234</v>
       </c>
       <c r="AB11" t="n">
-        <v>89.2488987113378</v>
+        <v>122.6220162944429</v>
       </c>
       <c r="AC11" t="n">
-        <v>80.73110907996531</v>
+        <v>110.9191431604142</v>
       </c>
       <c r="AD11" t="n">
-        <v>65228.78308767633</v>
+        <v>89619.98431503234</v>
       </c>
       <c r="AE11" t="n">
-        <v>89248.8987113378</v>
+        <v>122622.0162944429</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.132870818965203e-06</v>
+        <v>7.646893060300427e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>80731.1090799653</v>
+        <v>110919.1431604142</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>64.8869791117765</v>
+        <v>89.27818033913252</v>
       </c>
       <c r="AB12" t="n">
-        <v>88.78122743218472</v>
+        <v>122.1543450152898</v>
       </c>
       <c r="AC12" t="n">
-        <v>80.30807169131369</v>
+        <v>110.4961057717626</v>
       </c>
       <c r="AD12" t="n">
-        <v>64886.9791117765</v>
+        <v>89278.18033913252</v>
       </c>
       <c r="AE12" t="n">
-        <v>88781.22743218472</v>
+        <v>122154.3450152898</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.13305755103241e-06</v>
+        <v>7.647238563513909e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>80308.07169131369</v>
+        <v>110496.1057717626</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.7567442355179</v>
+        <v>106.3695093555237</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.2314284328731</v>
+        <v>145.5394553917249</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.4247798245768</v>
+        <v>131.6493740350867</v>
       </c>
       <c r="AD2" t="n">
-        <v>82756.74423551789</v>
+        <v>106369.5093555237</v>
       </c>
       <c r="AE2" t="n">
-        <v>113231.4284328731</v>
+        <v>145539.4553917249</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.491747701387884e-06</v>
+        <v>6.655810008643461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102424.7798245768</v>
+        <v>131649.3740350867</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.85545378560181</v>
+        <v>89.38287805103595</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.10633720699899</v>
+        <v>122.2975970436531</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.50671484902335</v>
+        <v>110.6256860275944</v>
       </c>
       <c r="AD3" t="n">
-        <v>65855.45378560181</v>
+        <v>89382.87805103595</v>
       </c>
       <c r="AE3" t="n">
-        <v>90106.33720699899</v>
+        <v>122297.5970436531</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.011041553456235e-06</v>
+        <v>7.645664234551518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.919270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>81506.71484902335</v>
+        <v>110625.6860275944</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.1603207504555</v>
+        <v>87.68774501588963</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.78698140432144</v>
+        <v>119.9782412409756</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.40871510891631</v>
+        <v>108.5276862874874</v>
       </c>
       <c r="AD4" t="n">
-        <v>64160.3207504555</v>
+        <v>87687.74501588964</v>
       </c>
       <c r="AE4" t="n">
-        <v>87786.98140432144</v>
+        <v>119978.2412409756</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.206289860339182e-06</v>
+        <v>8.017837640609945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.736979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>79408.71510891631</v>
+        <v>108527.6862874874</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.37621210567676</v>
+        <v>86.90363637111091</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.71412936410371</v>
+        <v>118.9053892007579</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.43825456165931</v>
+        <v>107.5572257402304</v>
       </c>
       <c r="AD5" t="n">
-        <v>63376.21210567676</v>
+        <v>86903.6363711109</v>
       </c>
       <c r="AE5" t="n">
-        <v>86714.12936410372</v>
+        <v>118905.3892007579</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.276869974242083e-06</v>
+        <v>8.152374230507149e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>78438.25456165931</v>
+        <v>107557.2257402304</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.57765234452384</v>
+        <v>86.10507660995798</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.62150466892457</v>
+        <v>117.8127645055787</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.44990843387934</v>
+        <v>106.5688796124504</v>
       </c>
       <c r="AD6" t="n">
-        <v>62577.65234452384</v>
+        <v>86105.07660995798</v>
       </c>
       <c r="AE6" t="n">
-        <v>85621.50466892458</v>
+        <v>117812.7645055787</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.363604072476507e-06</v>
+        <v>8.317702807623383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.600260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>77449.90843387935</v>
+        <v>106568.8796124504</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.10602638930594</v>
+        <v>85.63345065474009</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.9762052303271</v>
+        <v>117.1674650669812</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.86619546801793</v>
+        <v>105.985166646589</v>
       </c>
       <c r="AD7" t="n">
-        <v>62106.02638930594</v>
+        <v>85633.45065474008</v>
       </c>
       <c r="AE7" t="n">
-        <v>84976.20523032709</v>
+        <v>117167.4650669812</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.397602293610713e-06</v>
+        <v>8.382508664132196e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>76866.19546801793</v>
+        <v>105985.166646589</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.28279688768787</v>
+        <v>84.81022115312203</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.84982630789143</v>
+        <v>116.0410861445455</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.84731656905642</v>
+        <v>104.9662877476275</v>
       </c>
       <c r="AD8" t="n">
-        <v>61282.79688768787</v>
+        <v>84810.22115312202</v>
       </c>
       <c r="AE8" t="n">
-        <v>83849.82630789143</v>
+        <v>116041.0861445456</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.442538862879717e-06</v>
+        <v>8.468164700327438e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>75847.31656905642</v>
+        <v>104966.2877476275</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.41118214165105</v>
+        <v>84.9386064070852</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.02548867632143</v>
+        <v>116.2167485129756</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.0062139675872</v>
+        <v>105.1251851461583</v>
       </c>
       <c r="AD9" t="n">
-        <v>61411.18214165105</v>
+        <v>84938.6064070852</v>
       </c>
       <c r="AE9" t="n">
-        <v>84025.48867632143</v>
+        <v>116216.7485129756</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.436188342880927e-06</v>
+        <v>8.456059629118761e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>76006.2139675872</v>
+        <v>105125.1851461583</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.94003244326674</v>
+        <v>74.86691742564823</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.80313205513474</v>
+        <v>102.4362193170219</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.75946471515569</v>
+        <v>92.65985031556784</v>
       </c>
       <c r="AD2" t="n">
-        <v>53940.03244326675</v>
+        <v>74866.91742564822</v>
       </c>
       <c r="AE2" t="n">
-        <v>73803.13205513475</v>
+        <v>102436.2193170219</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898407579864999e-06</v>
+        <v>1.043232621747555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.580729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66759.46471515569</v>
+        <v>92659.85031556783</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.00775026564929</v>
+        <v>72.76404304743856</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.15929833344656</v>
+        <v>99.55897382048688</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.36795477322066</v>
+        <v>90.05720509098177</v>
       </c>
       <c r="AD3" t="n">
-        <v>52007.75026564929</v>
+        <v>72764.04304743856</v>
       </c>
       <c r="AE3" t="n">
-        <v>71159.29833344655</v>
+        <v>99558.97382048688</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.245122149379316e-06</v>
+        <v>1.117073751432085e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>64367.95477322066</v>
+        <v>90057.20509098176</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.49926074237436</v>
+        <v>61.96279274211614</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.46356053472762</v>
+        <v>84.78022663521959</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.7386172135371</v>
+        <v>76.68892079496975</v>
       </c>
       <c r="AD4" t="n">
-        <v>51499.26074237436</v>
+        <v>61962.79274211614</v>
       </c>
       <c r="AE4" t="n">
-        <v>70463.56053472761</v>
+        <v>84780.22663521959</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.333659923347613e-06</v>
+        <v>1.135929980227808e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>63738.6172135371</v>
+        <v>76688.92079496974</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.85324895372656</v>
+        <v>81.79684104612696</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.89385575744275</v>
+        <v>111.9180465412092</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.07802110272006</v>
+        <v>101.2367452573097</v>
       </c>
       <c r="AD2" t="n">
-        <v>59853.24895372656</v>
+        <v>81796.84104612695</v>
       </c>
       <c r="AE2" t="n">
-        <v>81893.85575744275</v>
+        <v>111918.0465412092</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.31203229830317e-06</v>
+        <v>8.754916371649621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.893229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>74078.02110272006</v>
+        <v>101236.7452573098</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.87915330371507</v>
+        <v>78.82274539611547</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.82456688125919</v>
+        <v>107.8487576650256</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.39709944559534</v>
+        <v>97.55582360018505</v>
       </c>
       <c r="AD3" t="n">
-        <v>56879.15330371507</v>
+        <v>78822.74539611547</v>
       </c>
       <c r="AE3" t="n">
-        <v>77824.56688125919</v>
+        <v>107848.7576650256</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.777348027347852e-06</v>
+        <v>9.699668175990802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>70397.09944559535</v>
+        <v>97555.82360018505</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.7678743424386</v>
+        <v>77.54087423424679</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.3040659802738</v>
+        <v>106.0948449891934</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.0217130165631</v>
+        <v>95.96930188850176</v>
       </c>
       <c r="AD4" t="n">
-        <v>55767.8743424386</v>
+        <v>77540.87423424679</v>
       </c>
       <c r="AE4" t="n">
-        <v>76304.06598027381</v>
+        <v>106094.8449891934</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.925949023245403e-06</v>
+        <v>1.000137957373216e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>69021.7130165631</v>
+        <v>95969.30188850177</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.22364451405711</v>
+        <v>76.9966444058653</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.55942671935713</v>
+        <v>105.3502057282767</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.3481410816003</v>
+        <v>95.29572995353898</v>
       </c>
       <c r="AD5" t="n">
-        <v>55223.64451405712</v>
+        <v>76996.6444058653</v>
       </c>
       <c r="AE5" t="n">
-        <v>75559.42671935713</v>
+        <v>105350.2057282767</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.962035995362762e-06</v>
+        <v>1.007464860353925e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.37890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>68348.1410816003</v>
+        <v>95295.72995353898</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.26462489833894</v>
+        <v>77.03762479014713</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.61549788905846</v>
+        <v>105.406276897978</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.39886089756173</v>
+        <v>95.34644976950041</v>
       </c>
       <c r="AD6" t="n">
-        <v>55264.62489833895</v>
+        <v>77037.62479014714</v>
       </c>
       <c r="AE6" t="n">
-        <v>75615.49788905846</v>
+        <v>105406.276897978</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.963376368612836e-06</v>
+        <v>1.007737002464637e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.37890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>68398.86089756174</v>
+        <v>95346.44976950041</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.68986575735585</v>
+        <v>69.61225015075036</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.98786649135357</v>
+        <v>95.2465517319511</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.49919993500347</v>
+        <v>86.15635451405204</v>
       </c>
       <c r="AD2" t="n">
-        <v>49689.86575735585</v>
+        <v>69612.25015075036</v>
       </c>
       <c r="AE2" t="n">
-        <v>67987.86649135358</v>
+        <v>95246.5517319511</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.368838945399643e-06</v>
+        <v>1.195535566808617e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61499.19993500347</v>
+        <v>86156.35451405204</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.86874278658828</v>
+        <v>58.91532059213267</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.86436981736114</v>
+        <v>80.61054079463169</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.48292820673902</v>
+        <v>72.9171839188154</v>
       </c>
       <c r="AD3" t="n">
-        <v>48868.74278658828</v>
+        <v>58915.32059213267</v>
       </c>
       <c r="AE3" t="n">
-        <v>66864.36981736113</v>
+        <v>80610.54079463168</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.548913055875918e-06</v>
+        <v>1.235634553931387e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>60482.92820673902</v>
+        <v>72917.1839188154</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.08672048399509</v>
+        <v>120.6330706121985</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.4194047273355</v>
+        <v>165.0554891670091</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3085001358495</v>
+        <v>149.3028249377894</v>
       </c>
       <c r="AD2" t="n">
-        <v>85086.7204839951</v>
+        <v>120633.0706121985</v>
       </c>
       <c r="AE2" t="n">
-        <v>116419.4047273355</v>
+        <v>165055.4891670091</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.356311934918245e-06</v>
+        <v>6.345992667108604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105308.5001358495</v>
+        <v>149302.8249377894</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.43284738225228</v>
+        <v>103.1020566914151</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.6835261182576</v>
+        <v>141.0687825068559</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.31092292384572</v>
+        <v>127.6053758957193</v>
       </c>
       <c r="AD3" t="n">
-        <v>79432.84738225228</v>
+        <v>103102.0566914151</v>
       </c>
       <c r="AE3" t="n">
-        <v>108683.5261182576</v>
+        <v>141068.7825068558</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.887117388727343e-06</v>
+        <v>7.3496203342777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>98310.92292384572</v>
+        <v>127605.3758957193</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.44876038653904</v>
+        <v>89.2032210417224</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.54988135635512</v>
+        <v>122.0517823976026</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.00336636377405</v>
+        <v>110.4033315863598</v>
       </c>
       <c r="AD4" t="n">
-        <v>65448.76038653904</v>
+        <v>89203.2210417224</v>
       </c>
       <c r="AE4" t="n">
-        <v>89549.88135635511</v>
+        <v>122051.7823976026</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.112007374071222e-06</v>
+        <v>7.774834148003026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>81003.36636377405</v>
+        <v>110403.3315863598</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.58253974913811</v>
+        <v>88.33700040432146</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.36468006530632</v>
+        <v>120.8665811065538</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.9312790205021</v>
+        <v>109.3312442430879</v>
       </c>
       <c r="AD5" t="n">
-        <v>64582.53974913811</v>
+        <v>88337.00040432146</v>
       </c>
       <c r="AE5" t="n">
-        <v>88364.68006530631</v>
+        <v>120866.5811065538</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.193272152771776e-06</v>
+        <v>7.928486639108707e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.717447916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>79931.2790205021</v>
+        <v>109331.2442430879</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.79208073498103</v>
+        <v>87.54654139016438</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.28313916954662</v>
+        <v>119.7850402107941</v>
       </c>
       <c r="AC6" t="n">
-        <v>78.9529588698812</v>
+        <v>108.352924092467</v>
       </c>
       <c r="AD6" t="n">
-        <v>63792.08073498103</v>
+        <v>87546.54139016438</v>
       </c>
       <c r="AE6" t="n">
-        <v>87283.13916954662</v>
+        <v>119785.0402107941</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.273986551640142e-06</v>
+        <v>8.081098492023745e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>78952.9588698812</v>
+        <v>108352.924092467</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.28120207770422</v>
+        <v>87.03566273288756</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.58413245228515</v>
+        <v>119.0860334935326</v>
       </c>
       <c r="AC7" t="n">
-        <v>78.32066437265284</v>
+        <v>107.7206295952386</v>
       </c>
       <c r="AD7" t="n">
-        <v>63281.20207770421</v>
+        <v>87035.66273288756</v>
       </c>
       <c r="AE7" t="n">
-        <v>86584.13245228515</v>
+        <v>119086.0334935326</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.313350674420593e-06</v>
+        <v>8.155526745224232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>78320.66437265284</v>
+        <v>107720.6295952386</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.84161508249294</v>
+        <v>86.59607573767629</v>
       </c>
       <c r="AB8" t="n">
-        <v>85.98267013222785</v>
+        <v>118.4845711734753</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.77660477226397</v>
+        <v>107.1765699948497</v>
       </c>
       <c r="AD8" t="n">
-        <v>62841.61508249294</v>
+        <v>86596.07573767629</v>
       </c>
       <c r="AE8" t="n">
-        <v>85982.67013222785</v>
+        <v>118484.5711734753</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.316389728276592e-06</v>
+        <v>8.16127287784214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>77776.60477226396</v>
+        <v>107176.5699948497</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.44288630889043</v>
+        <v>86.19734696407377</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.43711183351316</v>
+        <v>117.9390128747606</v>
       </c>
       <c r="AC9" t="n">
-        <v>77.28311379188256</v>
+        <v>106.6830790144683</v>
       </c>
       <c r="AD9" t="n">
-        <v>62442.88630889043</v>
+        <v>86197.34696407377</v>
       </c>
       <c r="AE9" t="n">
-        <v>85437.11183351316</v>
+        <v>117939.0128747607</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.356328160447152e-06</v>
+        <v>8.236787014371992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>77283.11379188256</v>
+        <v>106683.0790144683</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>62.40532899093525</v>
+        <v>86.15978964611858</v>
       </c>
       <c r="AB10" t="n">
-        <v>85.38572425417499</v>
+        <v>117.8876252954225</v>
       </c>
       <c r="AC10" t="n">
-        <v>77.23663057099347</v>
+        <v>106.6365957935792</v>
       </c>
       <c r="AD10" t="n">
-        <v>62405.32899093525</v>
+        <v>86159.78964611859</v>
       </c>
       <c r="AE10" t="n">
-        <v>85385.72425417499</v>
+        <v>117887.6252954225</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.357883581712034e-06</v>
+        <v>8.239727948389036e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>77236.63057099347</v>
+        <v>106636.5957935792</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.34854012344709</v>
+        <v>66.77712589245215</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.78436146704421</v>
+        <v>91.36740964489464</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.60143293406564</v>
+        <v>82.64743230337291</v>
       </c>
       <c r="AD2" t="n">
-        <v>47348.54012344708</v>
+        <v>66777.12589245215</v>
       </c>
       <c r="AE2" t="n">
-        <v>64784.36146704421</v>
+        <v>91367.40964489464</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.637675907802011e-06</v>
+        <v>1.292474832326677e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58601.43293406564</v>
+        <v>82647.43230337292</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.33929773362852</v>
+        <v>57.13897622697819</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.77171562154899</v>
+        <v>78.180068067446</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.58999399031593</v>
+        <v>70.71867209752166</v>
       </c>
       <c r="AD3" t="n">
-        <v>47339.29773362852</v>
+        <v>57138.97622697819</v>
       </c>
       <c r="AE3" t="n">
-        <v>64771.715621549</v>
+        <v>78180.068067446</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.673043653298251e-06</v>
+        <v>1.30058312405497e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58589.99399031593</v>
+        <v>70718.67209752166</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.81831843570204</v>
+        <v>99.52364842299515</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.1062122687128</v>
+        <v>136.1726464457751</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.07502288730886</v>
+        <v>123.1765201885364</v>
       </c>
       <c r="AD2" t="n">
-        <v>76818.31843570204</v>
+        <v>99523.64842299515</v>
       </c>
       <c r="AE2" t="n">
-        <v>105106.2122687128</v>
+        <v>136172.6464457751</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.869427750543107e-06</v>
+        <v>7.584024915827659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95075.02288730886</v>
+        <v>123176.5201885364</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.41297080469216</v>
+        <v>84.20355213800585</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.02793600400453</v>
+        <v>115.211014833716</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.00842772575108</v>
+        <v>104.2154372776908</v>
       </c>
       <c r="AD3" t="n">
-        <v>61412.97080469216</v>
+        <v>84203.55213800585</v>
       </c>
       <c r="AE3" t="n">
-        <v>84027.93600400453</v>
+        <v>115211.014833716</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.368462374793394e-06</v>
+        <v>8.562125882732561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>76008.42772575107</v>
+        <v>104215.4372776908</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.25095377864242</v>
+        <v>83.04153511195609</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.43801304439093</v>
+        <v>113.6210918741024</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.57024478193162</v>
+        <v>102.7772543338714</v>
       </c>
       <c r="AD4" t="n">
-        <v>60250.95377864242</v>
+        <v>83041.53511195609</v>
       </c>
       <c r="AE4" t="n">
-        <v>82438.01304439093</v>
+        <v>113621.0918741024</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.512632355726163e-06</v>
+        <v>8.84469705294114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>74570.24478193161</v>
+        <v>102777.2543338714</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.45782687278989</v>
+        <v>82.24840820610358</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.35282182151447</v>
+        <v>112.5359006512259</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.58862268629069</v>
+        <v>101.7956322382304</v>
       </c>
       <c r="AD5" t="n">
-        <v>59457.8268727899</v>
+        <v>82248.40820610357</v>
       </c>
       <c r="AE5" t="n">
-        <v>81352.82182151447</v>
+        <v>112535.900651226</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.588212752977889e-06</v>
+        <v>8.992833587038407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.528645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>73588.62268629069</v>
+        <v>101795.6322382304</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.61957394108762</v>
+        <v>81.23956307380909</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.20588717925064</v>
+        <v>111.1555542341153</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.55114987655126</v>
+        <v>100.54702414584</v>
       </c>
       <c r="AD6" t="n">
-        <v>58619.57394108762</v>
+        <v>81239.5630738091</v>
       </c>
       <c r="AE6" t="n">
-        <v>80205.88717925064</v>
+        <v>111155.5542341153</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.671505435663465e-06</v>
+        <v>9.156086094002744e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>72551.14987655127</v>
+        <v>100547.02414584</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.47466680359898</v>
+        <v>81.09465593632046</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.00761884088705</v>
+        <v>110.9572858957517</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.37180399012969</v>
+        <v>100.3676782594184</v>
       </c>
       <c r="AD7" t="n">
-        <v>58474.66680359898</v>
+        <v>81094.65593632046</v>
       </c>
       <c r="AE7" t="n">
-        <v>80007.61884088705</v>
+        <v>110957.2858957517</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.671505435663465e-06</v>
+        <v>9.156086094002744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>72371.80399012969</v>
+        <v>100367.6782594184</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.69202369363491</v>
+        <v>103.8985268796232</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.4063866984287</v>
+        <v>142.1585481561464</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.86935610829588</v>
+        <v>128.5911358409376</v>
       </c>
       <c r="AD2" t="n">
-        <v>80692.02369363491</v>
+        <v>103898.5268796232</v>
       </c>
       <c r="AE2" t="n">
-        <v>110406.3866984287</v>
+        <v>142158.5481561464</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612276669379722e-06</v>
+        <v>6.945335482500004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>99869.35610829588</v>
+        <v>128591.1358409376</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.3150564547266</v>
+        <v>87.60681098673544</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.99869762136255</v>
+        <v>119.8675037317295</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.60022542734865</v>
+        <v>108.4275174107026</v>
       </c>
       <c r="AD3" t="n">
-        <v>64315.0564547266</v>
+        <v>87606.81098673544</v>
       </c>
       <c r="AE3" t="n">
-        <v>87998.69762136255</v>
+        <v>119867.5037317295</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134991685124125e-06</v>
+        <v>7.950361253881061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79600.22542734865</v>
+        <v>108427.5174107026</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.03570135593794</v>
+        <v>86.32745588794677</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.24822753403723</v>
+        <v>118.1170336444042</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.0168177483569</v>
+        <v>106.8441097317109</v>
       </c>
       <c r="AD4" t="n">
-        <v>63035.70135593794</v>
+        <v>86327.45588794677</v>
       </c>
       <c r="AE4" t="n">
-        <v>86248.22753403723</v>
+        <v>118117.0336444042</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.278955259223472e-06</v>
+        <v>8.227160461387891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>78016.8177483569</v>
+        <v>106844.1097317109</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.94926355678974</v>
+        <v>85.24101808879858</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.76171540699048</v>
+        <v>116.6305215173574</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.67217625238214</v>
+        <v>105.4994682357361</v>
       </c>
       <c r="AD5" t="n">
-        <v>61949.26355678974</v>
+        <v>85241.01808879858</v>
       </c>
       <c r="AE5" t="n">
-        <v>84761.71540699048</v>
+        <v>116630.5215173574</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.407927705982644e-06</v>
+        <v>8.475136182166534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.600260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>76672.17625238214</v>
+        <v>105499.4682357361</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.44021719229152</v>
+        <v>84.73197172430035</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.06521571354374</v>
+        <v>115.9340218239107</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.04214951213426</v>
+        <v>104.8694414954882</v>
       </c>
       <c r="AD6" t="n">
-        <v>61440.21719229152</v>
+        <v>84731.97172430035</v>
       </c>
       <c r="AE6" t="n">
-        <v>84065.21571354373</v>
+        <v>115934.0218239107</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.443418895262807e-06</v>
+        <v>8.543375201152302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>76042.14951213426</v>
+        <v>104869.4414954882</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.87305301173621</v>
+        <v>84.16480754374506</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.28919666019063</v>
+        <v>115.1580027705576</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.34019262808336</v>
+        <v>104.1674846114373</v>
       </c>
       <c r="AD7" t="n">
-        <v>60873.05301173621</v>
+        <v>84164.80754374506</v>
       </c>
       <c r="AE7" t="n">
-        <v>83289.19666019063</v>
+        <v>115158.0027705576</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.482225195629581e-06</v>
+        <v>8.617988194438939e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>75340.19262808336</v>
+        <v>104167.4846114373</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.19170173513914</v>
+        <v>83.48345626714797</v>
       </c>
       <c r="AB8" t="n">
-        <v>82.35694178445412</v>
+        <v>114.2257478948211</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.49691084925891</v>
+        <v>103.3242028326129</v>
       </c>
       <c r="AD8" t="n">
-        <v>60191.70173513914</v>
+        <v>83483.45626714797</v>
       </c>
       <c r="AE8" t="n">
-        <v>82356.94178445412</v>
+        <v>114225.747894821</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.527783597253639e-06</v>
+        <v>8.705583473617785e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>74496.91084925891</v>
+        <v>103324.2028326129</v>
       </c>
     </row>
   </sheetData>
@@ -10864,28 +10864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.86882468703975</v>
+        <v>125.0620501505763</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5942465526</v>
+        <v>171.1154143642016</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9894623202486</v>
+        <v>154.7843993793222</v>
       </c>
       <c r="AD2" t="n">
-        <v>88868.82468703974</v>
+        <v>125062.0501505763</v>
       </c>
       <c r="AE2" t="n">
-        <v>121594.2465526</v>
+        <v>171115.4143642016</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.165682495933656e-06</v>
+        <v>5.897426384226818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.837239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>109989.4623202486</v>
+        <v>154784.3993793222</v>
       </c>
     </row>
     <row r="3">
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.45734983110344</v>
+        <v>106.5578093638216</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8217838004046</v>
+        <v>145.7970957702881</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0542311008911</v>
+        <v>131.8824255775205</v>
       </c>
       <c r="AD3" t="n">
-        <v>82457.34983110345</v>
+        <v>106557.8093638216</v>
       </c>
       <c r="AE3" t="n">
-        <v>112821.7838004046</v>
+        <v>145797.0957702881</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.700523293691825e-06</v>
+        <v>6.893794224688242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>102054.2311008911</v>
+        <v>131882.4255775205</v>
       </c>
     </row>
     <row r="4">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.02010415017018</v>
+        <v>92.20581502890896</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.06810733343418</v>
+        <v>126.160063955967</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.18581779146299</v>
+        <v>114.1195245188046</v>
       </c>
       <c r="AD4" t="n">
-        <v>68020.10415017018</v>
+        <v>92205.81502890895</v>
       </c>
       <c r="AE4" t="n">
-        <v>93068.10733343418</v>
+        <v>126160.063955967</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.925710750815853e-06</v>
+        <v>7.313301377646901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.899739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>84185.81779146299</v>
+        <v>114119.5245188046</v>
       </c>
     </row>
     <row r="5">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.98581538303193</v>
+        <v>91.17152626177069</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.6529478126363</v>
+        <v>124.7449044351691</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.90571910914073</v>
+        <v>112.8394258364823</v>
       </c>
       <c r="AD5" t="n">
-        <v>66985.81538303194</v>
+        <v>91171.52626177069</v>
       </c>
       <c r="AE5" t="n">
-        <v>91652.9478126363</v>
+        <v>124744.9044351691</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.032998892544574e-06</v>
+        <v>7.513171048265593e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>82905.71910914073</v>
+        <v>112839.4258364823</v>
       </c>
     </row>
     <row r="6">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.45250712534695</v>
+        <v>90.6382180040857</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.92325192657223</v>
+        <v>124.015208549105</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.24566437430781</v>
+        <v>112.1793711016494</v>
       </c>
       <c r="AD6" t="n">
-        <v>66452.50712534695</v>
+        <v>90638.21800408571</v>
       </c>
       <c r="AE6" t="n">
-        <v>90923.25192657224</v>
+        <v>124015.208549105</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.07471421607199e-06</v>
+        <v>7.590883532039045e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.756510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>82245.6643743078</v>
+        <v>112179.3711016494</v>
       </c>
     </row>
     <row r="7">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.91615398843565</v>
+        <v>90.1018648671744</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.18938990242017</v>
+        <v>123.281346524953</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.58184111175875</v>
+        <v>111.5155478391003</v>
       </c>
       <c r="AD7" t="n">
-        <v>65916.15398843565</v>
+        <v>90101.8648671744</v>
       </c>
       <c r="AE7" t="n">
-        <v>90189.38990242017</v>
+        <v>123281.346524953</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.115700168460462e-06</v>
+        <v>7.667237252700834e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>81581.84111175875</v>
+        <v>111515.5478391004</v>
       </c>
     </row>
     <row r="8">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.45448342193295</v>
+        <v>89.64019430067169</v>
       </c>
       <c r="AB8" t="n">
-        <v>89.55771186586355</v>
+        <v>122.6496684883963</v>
       </c>
       <c r="AC8" t="n">
-        <v>81.01044954044521</v>
+        <v>110.9441562677868</v>
       </c>
       <c r="AD8" t="n">
-        <v>65454.48342193294</v>
+        <v>89640.19430067169</v>
       </c>
       <c r="AE8" t="n">
-        <v>89557.71186586356</v>
+        <v>122649.6684883963</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.154874457052197e-06</v>
+        <v>7.740215981117528e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.684895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>81010.4495404452</v>
+        <v>110944.1562677868</v>
       </c>
     </row>
     <row r="9">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.59279052792276</v>
+        <v>88.77850140666152</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.37870563307192</v>
+        <v>121.4706622556047</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.94396600776518</v>
+        <v>109.8776727351068</v>
       </c>
       <c r="AD9" t="n">
-        <v>64592.79052792276</v>
+        <v>88778.50140666153</v>
       </c>
       <c r="AE9" t="n">
-        <v>88378.70563307192</v>
+        <v>121470.6622556047</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.201648322349719e-06</v>
+        <v>7.827352144536378e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>79943.96600776518</v>
+        <v>109877.6727351068</v>
       </c>
     </row>
     <row r="10">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.47859675339116</v>
+        <v>88.6643076321299</v>
       </c>
       <c r="AB10" t="n">
-        <v>88.22246067288407</v>
+        <v>121.3144172954169</v>
       </c>
       <c r="AC10" t="n">
-        <v>79.80263284728645</v>
+        <v>109.736339574628</v>
       </c>
       <c r="AD10" t="n">
-        <v>64478.59675339116</v>
+        <v>88664.3076321299</v>
       </c>
       <c r="AE10" t="n">
-        <v>88222.46067288407</v>
+        <v>121314.4172954169</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.202071828172332e-06</v>
+        <v>7.828141103762504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>79802.63284728644</v>
+        <v>109736.339574628</v>
       </c>
     </row>
     <row r="11">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>64.03383403635375</v>
+        <v>88.21954491509251</v>
       </c>
       <c r="AB11" t="n">
-        <v>87.61391670188755</v>
+        <v>120.7058733244203</v>
       </c>
       <c r="AC11" t="n">
-        <v>79.2521674587848</v>
+        <v>109.1858741861264</v>
       </c>
       <c r="AD11" t="n">
-        <v>64033.83403635376</v>
+        <v>88219.54491509251</v>
       </c>
       <c r="AE11" t="n">
-        <v>87613.91670188755</v>
+        <v>120705.8733244203</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.207906797283894e-06</v>
+        <v>7.839011208655802e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>79252.1674587848</v>
+        <v>109185.8741861264</v>
       </c>
     </row>
   </sheetData>
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.432553137805</v>
+        <v>83.67352011602279</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.05472941608106</v>
+        <v>114.4858016378767</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.03266401218383</v>
+        <v>103.5594374114191</v>
       </c>
       <c r="AD2" t="n">
-        <v>61432.553137805</v>
+        <v>83673.52011602279</v>
       </c>
       <c r="AE2" t="n">
-        <v>84054.72941608106</v>
+        <v>114485.8016378767</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.183613095737073e-06</v>
+        <v>8.386041384599219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76032.66401218383</v>
+        <v>103559.4374114191</v>
       </c>
     </row>
     <row r="3">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.64331852841404</v>
+        <v>80.88428550663181</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.23837557116788</v>
+        <v>110.6694477929635</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.58053762194167</v>
+        <v>100.1073110211769</v>
       </c>
       <c r="AD3" t="n">
-        <v>58643.31852841403</v>
+        <v>80884.28550663182</v>
       </c>
       <c r="AE3" t="n">
-        <v>80238.37557116788</v>
+        <v>110669.4477929635</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.604949955294606e-06</v>
+        <v>9.230610005131283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.600260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72580.53762194168</v>
+        <v>100107.3110211769</v>
       </c>
     </row>
     <row r="4">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.36810885383912</v>
+        <v>79.43848363146471</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.49357743613501</v>
+        <v>108.6912378830838</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.00226057207625</v>
+        <v>98.31789868866043</v>
       </c>
       <c r="AD4" t="n">
-        <v>57368.10885383912</v>
+        <v>79438.48363146471</v>
       </c>
       <c r="AE4" t="n">
-        <v>78493.57743613502</v>
+        <v>108691.2378830838</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.765385297878496e-06</v>
+        <v>9.552202224983493e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>71002.26057207625</v>
+        <v>98317.89868866044</v>
       </c>
     </row>
     <row r="5">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.54969694412428</v>
+        <v>78.62007172174987</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.37379015547849</v>
+        <v>107.5714506024273</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.98934421785391</v>
+        <v>97.30498233443809</v>
       </c>
       <c r="AD5" t="n">
-        <v>56549.69694412428</v>
+        <v>78620.07172174986</v>
       </c>
       <c r="AE5" t="n">
-        <v>77373.79015547849</v>
+        <v>107571.4506024273</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.847575639176828e-06</v>
+        <v>9.716952546719615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>69989.34421785391</v>
+        <v>97304.9823344381</v>
       </c>
     </row>
     <row r="6">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.31114709987923</v>
+        <v>78.38152187750481</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.04739573450621</v>
+        <v>107.245056181455</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.69410042232165</v>
+        <v>97.00973853890586</v>
       </c>
       <c r="AD6" t="n">
-        <v>56311.14709987923</v>
+        <v>78381.52187750481</v>
       </c>
       <c r="AE6" t="n">
-        <v>77047.39573450621</v>
+        <v>107245.056181455</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.877254777595488e-06</v>
+        <v>9.776444301177442e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.3984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>69694.10042232166</v>
+        <v>97009.73853890586</v>
       </c>
     </row>
   </sheetData>
@@ -12836,28 +12836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.81513482722126</v>
+        <v>77.10563284096506</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.36872986053883</v>
+        <v>105.4993285134105</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.08020546685198</v>
+        <v>95.43062066935481</v>
       </c>
       <c r="AD2" t="n">
-        <v>55815.13482722126</v>
+        <v>77105.63284096506</v>
       </c>
       <c r="AE2" t="n">
-        <v>76368.72986053884</v>
+        <v>105499.3285134105</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.712754117266806e-06</v>
+        <v>9.859376339147684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69080.20546685198</v>
+        <v>95430.62066935482</v>
       </c>
     </row>
     <row r="3">
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.78490692012825</v>
+        <v>74.90481273327984</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.59088247072167</v>
+        <v>102.4880693487464</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.56747193318478</v>
+        <v>92.70675185303658</v>
       </c>
       <c r="AD3" t="n">
-        <v>53784.90692012825</v>
+        <v>74904.81273327985</v>
       </c>
       <c r="AE3" t="n">
-        <v>73590.88247072167</v>
+        <v>102488.0693487464</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.05733563388349e-06</v>
+        <v>1.058026242132005e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>66567.47193318477</v>
+        <v>92706.75185303658</v>
       </c>
     </row>
     <row r="4">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.98100573144665</v>
+        <v>74.10091154459826</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.49094939875064</v>
+        <v>101.3881362767754</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.57251492983656</v>
+        <v>91.71179484968836</v>
       </c>
       <c r="AD4" t="n">
-        <v>52981.00573144665</v>
+        <v>74100.91154459826</v>
       </c>
       <c r="AE4" t="n">
-        <v>72490.94939875064</v>
+        <v>101388.1362767754</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.178320972473975e-06</v>
+        <v>1.08333713158224e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>65572.51492983656</v>
+        <v>91711.79484968836</v>
       </c>
     </row>
     <row r="5">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.03209142556874</v>
+        <v>74.15199723872033</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.56084709919021</v>
+        <v>101.458033977215</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.63574169184824</v>
+        <v>91.77502161170004</v>
       </c>
       <c r="AD5" t="n">
-        <v>53032.09142556874</v>
+        <v>74151.99723872033</v>
       </c>
       <c r="AE5" t="n">
-        <v>72560.84709919021</v>
+        <v>101458.033977215</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.177764169469284e-06</v>
+        <v>1.083220644911529e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>65635.74169184823</v>
+        <v>91775.02161170004</v>
       </c>
     </row>
   </sheetData>
@@ -23856,28 +23856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.9192123337285</v>
+        <v>72.27939053892401</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.03815682897472</v>
+        <v>98.89585087697793</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.25837484391242</v>
+        <v>89.45736967050222</v>
       </c>
       <c r="AD2" t="n">
-        <v>51919.2123337285</v>
+        <v>72279.39053892401</v>
       </c>
       <c r="AE2" t="n">
-        <v>71038.15682897472</v>
+        <v>98895.85087697793</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.110267020118948e-06</v>
+        <v>1.110898344719461e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>64258.37484391242</v>
+        <v>89457.36967050222</v>
       </c>
     </row>
     <row r="3">
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.38263478878402</v>
+        <v>70.74281299397954</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.93574364296578</v>
+        <v>96.79343769096897</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.35661302162004</v>
+        <v>87.55560784820986</v>
       </c>
       <c r="AD3" t="n">
-        <v>50382.63478878402</v>
+        <v>70742.81299397955</v>
       </c>
       <c r="AE3" t="n">
-        <v>68935.74364296577</v>
+        <v>96793.43769096897</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.400975924057638e-06</v>
+        <v>1.174094267537049e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>62356.61302162004</v>
+        <v>87555.60784820985</v>
       </c>
     </row>
     <row r="4">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.30069399812869</v>
+        <v>60.56616870957358</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.82362863821864</v>
+        <v>82.86930401919204</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.25519811557153</v>
+        <v>74.96037395141853</v>
       </c>
       <c r="AD4" t="n">
-        <v>50300.69399812869</v>
+        <v>60566.16870957358</v>
       </c>
       <c r="AE4" t="n">
-        <v>68823.62863821864</v>
+        <v>82869.30401919204</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.444750941576851e-06</v>
+        <v>1.183610324978021e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>62255.19811557153</v>
+        <v>74960.37395141853</v>
       </c>
     </row>
   </sheetData>
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.3593479658742</v>
+        <v>64.21351044736288</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.06266100008992</v>
+        <v>87.85975789419393</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.13948773974602</v>
+        <v>79.47454591273781</v>
       </c>
       <c r="AD2" t="n">
-        <v>45359.3479658742</v>
+        <v>64213.51044736288</v>
       </c>
       <c r="AE2" t="n">
-        <v>62062.66100008992</v>
+        <v>87859.75789419393</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.781086234783603e-06</v>
+        <v>1.375046948788484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56139.48773974601</v>
+        <v>79474.54591273781</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.11839150161011</v>
+        <v>102.0796527578964</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.2532737095488</v>
+        <v>139.6698843397381</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.92173320116098</v>
+        <v>126.3399866063049</v>
       </c>
       <c r="AD2" t="n">
-        <v>79118.39150161011</v>
+        <v>102079.6527578964</v>
       </c>
       <c r="AE2" t="n">
-        <v>108253.2737095488</v>
+        <v>139669.8843397381</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709097661971843e-06</v>
+        <v>7.197794045904902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97921.73320116097</v>
+        <v>126339.9866063049</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.97774827418891</v>
+        <v>86.02426087649576</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.16893357087874</v>
+        <v>117.7021888537172</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.94509148975246</v>
+        <v>106.4688571456086</v>
       </c>
       <c r="AD3" t="n">
-        <v>62977.74827418891</v>
+        <v>86024.26087649575</v>
       </c>
       <c r="AE3" t="n">
-        <v>86168.93357087874</v>
+        <v>117702.1888537172</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.232107045619218e-06</v>
+        <v>8.212734651585305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>77945.09148975246</v>
+        <v>106468.8571456086</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.46280696843767</v>
+        <v>84.50931957074451</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.09612404185746</v>
+        <v>115.6293793246959</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.07010799297386</v>
+        <v>104.59387364883</v>
       </c>
       <c r="AD4" t="n">
-        <v>61462.80696843767</v>
+        <v>84509.31957074451</v>
       </c>
       <c r="AE4" t="n">
-        <v>84096.12404185746</v>
+        <v>115629.3793246959</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.420172790379259e-06</v>
+        <v>8.577690935090887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>76070.10799297386</v>
+        <v>104593.87364883</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.82835549683009</v>
+        <v>83.87486809913693</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.22803954838092</v>
+        <v>114.7612948312194</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.2848722651902</v>
+        <v>103.8086379210464</v>
       </c>
       <c r="AD5" t="n">
-        <v>60828.35549683009</v>
+        <v>83874.86809913693</v>
       </c>
       <c r="AE5" t="n">
-        <v>83228.03954838093</v>
+        <v>114761.2948312194</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.491642204836439e-06</v>
+        <v>8.716382922395077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>75284.87226519021</v>
+        <v>103808.6379210464</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.13077190660098</v>
+        <v>83.17728450890783</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.27357490501396</v>
+        <v>113.8068301878524</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.42150038778634</v>
+        <v>102.9452660436425</v>
       </c>
       <c r="AD6" t="n">
-        <v>60130.77190660098</v>
+        <v>83177.28450890783</v>
       </c>
       <c r="AE6" t="n">
-        <v>82273.57490501396</v>
+        <v>113806.8301878524</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.540412756004083e-06</v>
+        <v>8.811025990548573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.528645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>74421.50038778633</v>
+        <v>102945.2660436425</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.41106050798217</v>
+        <v>82.45757311028902</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.28883401799817</v>
+        <v>112.8220893008366</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.53074178893451</v>
+        <v>102.0545074447907</v>
       </c>
       <c r="AD7" t="n">
-        <v>59411.06050798217</v>
+        <v>82457.57311028901</v>
       </c>
       <c r="AE7" t="n">
-        <v>81288.83401799818</v>
+        <v>112822.0893008366</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.579606454872782e-06</v>
+        <v>8.887084427954109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>73530.74178893451</v>
+        <v>102054.5074447907</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.05581186330858</v>
+        <v>81.93173226502323</v>
       </c>
       <c r="AB8" t="n">
-        <v>80.80276714989191</v>
+        <v>112.1026106578835</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.09106446052104</v>
+        <v>101.4036948337261</v>
       </c>
       <c r="AD8" t="n">
-        <v>59055.81186330858</v>
+        <v>81931.73226502322</v>
       </c>
       <c r="AE8" t="n">
-        <v>80802.76714989191</v>
+        <v>112102.6106578835</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.621877548439084e-06</v>
+        <v>8.969114790407189e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>73091.06446052104</v>
+        <v>101403.6948337261</v>
       </c>
     </row>
   </sheetData>
@@ -25595,28 +25595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.95628469268016</v>
+        <v>122.8314359504815</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.9774249570089</v>
+        <v>168.0633896078801</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6223865050076</v>
+        <v>152.0236555821995</v>
       </c>
       <c r="AD2" t="n">
-        <v>86956.28469268016</v>
+        <v>122831.4359504815</v>
       </c>
       <c r="AE2" t="n">
-        <v>118977.4249570089</v>
+        <v>168063.3896078801</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.259271043106294e-06</v>
+        <v>6.115670858285575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>107622.3865050076</v>
+        <v>152023.6555821995</v>
       </c>
     </row>
     <row r="3">
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.68734409153748</v>
+        <v>104.5757541537655</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.3999838603895</v>
+        <v>143.0851603897862</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.86356434813271</v>
+        <v>129.4293135035076</v>
       </c>
       <c r="AD3" t="n">
-        <v>80687.34409153748</v>
+        <v>104575.7541537655</v>
       </c>
       <c r="AE3" t="n">
-        <v>110399.9838603895</v>
+        <v>143085.1603897862</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.816163610405813e-06</v>
+        <v>7.160619744090295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99863.56434813271</v>
+        <v>129429.3135035076</v>
       </c>
     </row>
     <row r="4">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.82710579443787</v>
+        <v>90.80076720268649</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.43579435174912</v>
+        <v>124.2376155337951</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.70929046978378</v>
+        <v>112.3805518758709</v>
       </c>
       <c r="AD4" t="n">
-        <v>66827.10579443787</v>
+        <v>90800.76720268649</v>
       </c>
       <c r="AE4" t="n">
-        <v>91435.79435174912</v>
+        <v>124237.6155337951</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.00365283079297e-06</v>
+        <v>7.512423060291825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>82709.29046978378</v>
+        <v>112380.5518758708</v>
       </c>
     </row>
     <row r="5">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.8865740334161</v>
+        <v>89.8602354416647</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.14891730298692</v>
+        <v>122.9507384850328</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.54523116041175</v>
+        <v>111.2164925664988</v>
       </c>
       <c r="AD5" t="n">
-        <v>65886.57403341609</v>
+        <v>89860.2354416647</v>
       </c>
       <c r="AE5" t="n">
-        <v>90148.91730298691</v>
+        <v>122950.7384850328</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.105641462761132e-06</v>
+        <v>7.70379373678814e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.763020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>81545.23116041174</v>
+        <v>111216.4925664988</v>
       </c>
     </row>
     <row r="6">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.28614733281994</v>
+        <v>89.25980874106855</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.32738700227513</v>
+        <v>122.1292081843211</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.80210655857462</v>
+        <v>110.4733679646617</v>
       </c>
       <c r="AD6" t="n">
-        <v>65286.14733281994</v>
+        <v>89259.80874106855</v>
       </c>
       <c r="AE6" t="n">
-        <v>89327.38700227514</v>
+        <v>122129.2081843211</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.148723890221978e-06</v>
+        <v>7.784633268892652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>80802.10655857463</v>
+        <v>110473.3679646617</v>
       </c>
     </row>
     <row r="7">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.68976443416942</v>
+        <v>88.66342584241804</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.51138960978533</v>
+        <v>121.3132107918313</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.06398681196426</v>
+        <v>109.7352482180513</v>
       </c>
       <c r="AD7" t="n">
-        <v>64689.76443416942</v>
+        <v>88663.42584241803</v>
       </c>
       <c r="AE7" t="n">
-        <v>88511.38960978533</v>
+        <v>121313.2107918313</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.195388612036673e-06</v>
+        <v>7.872194590285593e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>80063.98681196425</v>
+        <v>109735.2482180513</v>
       </c>
     </row>
     <row r="8">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.19227426286534</v>
+        <v>88.16593567111394</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.83070160969004</v>
+        <v>120.632522791736</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.44826271924623</v>
+        <v>109.1195241253333</v>
       </c>
       <c r="AD8" t="n">
-        <v>64192.27426286534</v>
+        <v>88165.93567111394</v>
       </c>
       <c r="AE8" t="n">
-        <v>87830.70160969003</v>
+        <v>120632.522791736</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.233038288457579e-06</v>
+        <v>7.942840150555342e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>79448.26271924622</v>
+        <v>109119.5241253333</v>
       </c>
     </row>
     <row r="9">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.56665239578397</v>
+        <v>87.54031380403258</v>
       </c>
       <c r="AB9" t="n">
-        <v>86.9746981706609</v>
+        <v>119.7765193527068</v>
       </c>
       <c r="AC9" t="n">
-        <v>78.67395504702939</v>
+        <v>108.3452164531165</v>
       </c>
       <c r="AD9" t="n">
-        <v>63566.65239578397</v>
+        <v>87540.31380403257</v>
       </c>
       <c r="AE9" t="n">
-        <v>86974.69817066091</v>
+        <v>119776.5193527068</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.276049544507423e-06</v>
+        <v>8.023546137177305e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>78673.95504702939</v>
+        <v>108345.2164531165</v>
       </c>
     </row>
     <row r="10">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>63.27400185530538</v>
+        <v>87.24766326355399</v>
       </c>
       <c r="AB10" t="n">
-        <v>86.57428079034766</v>
+        <v>119.3761019723936</v>
       </c>
       <c r="AC10" t="n">
-        <v>78.3117529395038</v>
+        <v>107.9830143455909</v>
       </c>
       <c r="AD10" t="n">
-        <v>63274.00185530538</v>
+        <v>87247.66326355399</v>
       </c>
       <c r="AE10" t="n">
-        <v>86574.28079034766</v>
+        <v>119376.1019723936</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.279275981806253e-06</v>
+        <v>8.029600199052975e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>78311.7529395038</v>
+        <v>107983.0143455909</v>
       </c>
     </row>
     <row r="11">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>63.34980160542406</v>
+        <v>87.32346301367267</v>
       </c>
       <c r="AB11" t="n">
-        <v>86.67799335250896</v>
+        <v>119.4798145345549</v>
       </c>
       <c r="AC11" t="n">
-        <v>78.40556732029395</v>
+        <v>108.076828726381</v>
       </c>
       <c r="AD11" t="n">
-        <v>63349.80160542407</v>
+        <v>87323.46301367266</v>
       </c>
       <c r="AE11" t="n">
-        <v>86677.99335250896</v>
+        <v>119479.8145345549</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.278208410641199e-06</v>
+        <v>8.027597016814701e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>78405.56732029395</v>
+        <v>108076.828726381</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.04993235934803</v>
+        <v>61.19972608522238</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.9028166830165</v>
+        <v>83.73616517113307</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.28121452942371</v>
+        <v>75.74450309166585</v>
       </c>
       <c r="AD2" t="n">
-        <v>43049.93235934804</v>
+        <v>61199.72608522238</v>
       </c>
       <c r="AE2" t="n">
-        <v>58902.8166830165</v>
+        <v>83736.16517113306</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.797816444518888e-06</v>
+        <v>1.449989893416708e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.424479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>53281.21452942371</v>
+        <v>75744.50309166584</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.78215451214053</v>
+        <v>79.41004846082608</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.06009297222801</v>
+        <v>108.6523316281448</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.51470866051424</v>
+        <v>98.28270559208758</v>
       </c>
       <c r="AD2" t="n">
-        <v>57782.15451214053</v>
+        <v>79410.04846082607</v>
       </c>
       <c r="AE2" t="n">
-        <v>79060.09297222801</v>
+        <v>108652.3316281448</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.513892349973831e-06</v>
+        <v>9.295383848031759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.76953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>71514.70866051424</v>
+        <v>98282.70559208759</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.32712529720852</v>
+        <v>76.78442704530187</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.70101369211477</v>
+        <v>105.0598405731847</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.47621519239655</v>
+        <v>95.03307684131889</v>
       </c>
       <c r="AD3" t="n">
-        <v>55327.12529720852</v>
+        <v>76784.42704530187</v>
       </c>
       <c r="AE3" t="n">
-        <v>75701.01369211476</v>
+        <v>105059.8405731847</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.924911275295161e-06</v>
+        <v>1.014178832191989e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.45703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>68476.21519239656</v>
+        <v>95033.07684131889</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.34223258759062</v>
+        <v>75.79953433568396</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.35344003641644</v>
+        <v>103.7122669174864</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.25725207506615</v>
+        <v>93.81411372398848</v>
       </c>
       <c r="AD4" t="n">
-        <v>54342.23258759062</v>
+        <v>75799.53433568396</v>
       </c>
       <c r="AE4" t="n">
-        <v>74353.44003641645</v>
+        <v>103712.2669174864</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.047529787566027e-06</v>
+        <v>1.039429459589847e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>67257.25207506615</v>
+        <v>93814.11372398848</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.11282933199622</v>
+        <v>75.57013108008957</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.03956038155499</v>
+        <v>103.398387262625</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.97332865393172</v>
+        <v>93.53019030285405</v>
       </c>
       <c r="AD5" t="n">
-        <v>54112.82933199622</v>
+        <v>75570.13108008957</v>
       </c>
       <c r="AE5" t="n">
-        <v>74039.560381555</v>
+        <v>103398.387262625</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.080503272007927e-06</v>
+        <v>1.046219634696622e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>66973.32865393172</v>
+        <v>93530.19030285405</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.80902919234725</v>
+        <v>97.24639250387351</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.357014082371</v>
+        <v>133.0568044317938</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.58820431734671</v>
+        <v>120.3580497632567</v>
       </c>
       <c r="AD2" t="n">
-        <v>74809.02919234725</v>
+        <v>97246.3925038735</v>
       </c>
       <c r="AE2" t="n">
-        <v>102357.014082371</v>
+        <v>133056.8044317937</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.00905184091324e-06</v>
+        <v>7.942669810531006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>92588.20431734671</v>
+        <v>120358.0497632567</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.14868493312666</v>
+        <v>82.67129959067346</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.29808429817332</v>
+        <v>113.1145193002453</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.44367063886172</v>
+        <v>102.319028335484</v>
       </c>
       <c r="AD3" t="n">
-        <v>60148.68493312666</v>
+        <v>82671.29959067346</v>
       </c>
       <c r="AE3" t="n">
-        <v>82298.08429817331</v>
+        <v>113114.5193002453</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.463286948470311e-06</v>
+        <v>8.842593188637039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>74443.67063886172</v>
+        <v>102319.028335484</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.74230886480547</v>
+        <v>81.26492352235228</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.373818516564</v>
+        <v>111.190253518636</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.70305408272462</v>
+        <v>100.5784117793469</v>
       </c>
       <c r="AD4" t="n">
-        <v>58742.30886480547</v>
+        <v>81264.92352235227</v>
       </c>
       <c r="AE4" t="n">
-        <v>80373.818516564</v>
+        <v>111190.253518636</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.656532454160814e-06</v>
+        <v>9.225448114184501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>72703.05408272462</v>
+        <v>100578.4117793469</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.9514043486575</v>
+        <v>80.3034268056121</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.29166806532622</v>
+        <v>109.8746912925514</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.72418255174492</v>
+        <v>99.38840496571615</v>
       </c>
       <c r="AD5" t="n">
-        <v>57951.4043486575</v>
+        <v>80303.42680561211</v>
       </c>
       <c r="AE5" t="n">
-        <v>79291.66806532622</v>
+        <v>109874.6912925514</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.732452128226674e-06</v>
+        <v>9.375858966215514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>71724.18255174492</v>
+        <v>99388.40496571615</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.39664895579239</v>
+        <v>79.74867141274699</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.53262726272791</v>
+        <v>109.1156504899531</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.0375835380259</v>
+        <v>98.70180595199713</v>
       </c>
       <c r="AD6" t="n">
-        <v>57396.64895579239</v>
+        <v>79748.67141274699</v>
       </c>
       <c r="AE6" t="n">
-        <v>78532.62726272791</v>
+        <v>109115.6504899531</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.779417678750519e-06</v>
+        <v>9.46890636871449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.424479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>71037.58353802589</v>
+        <v>98701.80595199713</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.50615731544247</v>
+        <v>79.85817977239707</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.68246143156892</v>
+        <v>109.2654846587941</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.17311774408635</v>
+        <v>98.83734015805759</v>
       </c>
       <c r="AD7" t="n">
-        <v>57506.15731544246</v>
+        <v>79858.17977239707</v>
       </c>
       <c r="AE7" t="n">
-        <v>78682.46143156893</v>
+        <v>109265.4846587941</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.776373848213087e-06</v>
+        <v>9.462875980014771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.430989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>71173.11774408635</v>
+        <v>98837.34015805759</v>
       </c>
     </row>
   </sheetData>
